--- a/config/forms/contact/case_contact-edit.xlsx
+++ b/config/forms/contact/case_contact-edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17091FA-746B-4B8F-AEDD-1AE9892C50FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B88486-DDB8-45A3-90AD-406ABDCC3DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6409,9 +6409,6 @@
     <t>contact_geolocation_valid</t>
   </si>
   <si>
-    <t>Are you with the contact and is this their residential location?</t>
-  </si>
-  <si>
     <t>contact_occupation</t>
   </si>
   <si>
@@ -6524,17 +6521,27 @@
   </si>
   <si>
     <t>&lt;h3 style="border-bottom: rgb(150, 150, 150) dashed 1px; padding: 5px 0;"&gt;Contact with the case&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>Are you with the contact at their home?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6650,43 +6657,44 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
@@ -6923,11 +6931,11 @@
   <dimension ref="A1:AE1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M47" sqref="M47"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7194,7 +7202,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="14" spans="1:31" s="9" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7202,13 +7210,13 @@
         <v>23</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="15" spans="1:31" s="9" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7216,13 +7224,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="16" spans="1:31" s="9" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7245,7 +7253,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>14</v>
@@ -7259,10 +7267,10 @@
         <v>53</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7509,10 +7517,10 @@
         <v>53</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7538,7 +7546,7 @@
         <v>2090</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="10" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7546,7 +7554,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>14</v>
@@ -7561,7 +7569,7 @@
         <v>12</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>14</v>
@@ -7578,21 +7586,21 @@
         <v>2081</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>2135</v>
+      </c>
+      <c r="M47" s="17" t="s">
         <v>2150</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>2135</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>2136</v>
-      </c>
-      <c r="M47" s="17" t="s">
-        <v>2151</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7600,10 +7608,10 @@
         <v>16</v>
       </c>
       <c r="B48" s="17" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>2137</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>2138</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7620,7 +7628,7 @@
         <v>21</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="I49" s="13" t="s">
         <v>187</v>
@@ -7643,12 +7651,12 @@
         <v>2082</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>2078</v>
@@ -7663,10 +7671,10 @@
         <v>2082</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="L51" s="17" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7687,8 +7695,8 @@
       <c r="B53" s="17" t="s">
         <v>2120</v>
       </c>
-      <c r="C53" s="17" t="s">
-        <v>2121</v>
+      <c r="C53" s="21" t="s">
+        <v>2159</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>21</v>
@@ -7700,7 +7708,7 @@
         <v>19</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7713,7 +7721,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>14</v>
@@ -7727,24 +7735,24 @@
         <v>2085</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B58" s="17" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C58" s="17" t="s">
         <v>2122</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>2123</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>21</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7752,16 +7760,16 @@
         <v>16</v>
       </c>
       <c r="B59" s="17" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>2124</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>2125</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>21</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="60" spans="1:12" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7769,16 +7777,16 @@
         <v>16</v>
       </c>
       <c r="B60" s="17" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>2127</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>2128</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>21</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="61" spans="1:12" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7786,7 +7794,7 @@
         <v>19</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="62" spans="1:12" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7798,7 +7806,7 @@
         <v>12</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -7812,7 +7820,7 @@
         <v>2091</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -7823,7 +7831,7 @@
         <v>2092</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="J65" s="13" t="s">
         <v>70</v>
@@ -7848,7 +7856,7 @@
         <v>19</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9153,10 +9161,10 @@
         <v>123</v>
       </c>
       <c r="B33" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C33" t="s">
         <v>2129</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2130</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -36632,7 +36640,7 @@
       </c>
       <c r="C2" s="6" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-11-23 15-00</v>
+        <v>2023-12-04 15-28</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>

--- a/config/forms/contact/case_contact-edit.xlsx
+++ b/config/forms/contact/case_contact-edit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B88486-DDB8-45A3-90AD-406ABDCC3DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A846F528-B91C-4CF8-8F58-08E800520054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6931,11 +6931,11 @@
   <dimension ref="A1:AE1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8860,8 +8860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2062"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -36640,7 +36640,7 @@
       </c>
       <c r="C2" s="6" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-12-04 15-28</v>
+        <v>2023-12-15 13-50</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
